--- a/report/excel/teste.xlsx
+++ b/report/excel/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,9 +434,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>Testando o arquivo txt</t>
+          <t>Testando o TKinter</t>
         </is>
       </c>
     </row>
